--- a/DataTest/Viện_phí/TC_01.xlsx
+++ b/DataTest/Viện_phí/TC_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\Viện_phí\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB68B3A-7465-4CB2-B7DB-657843C25873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700FFCDC-BF4F-4326-A45D-914F0B790C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{EA3FB3C4-B3F2-4ADA-9807-7C0AE10D9903}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA3FB3C4-B3F2-4ADA-9807-7C0AE10D9903}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Amt</t>
   </si>
@@ -85,16 +85,57 @@
   </si>
   <si>
     <t>RealRevenue</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>VP_1</t>
+  </si>
+  <si>
+    <t>VP_2</t>
+  </si>
+  <si>
+    <t>VP_3</t>
+  </si>
+  <si>
+    <t>VP_4</t>
+  </si>
+  <si>
+    <t>DiscReason</t>
+  </si>
+  <si>
+    <t>Bảo Hưng test miễn giảm</t>
+  </si>
+  <si>
+    <t>DiscountType</t>
+  </si>
+  <si>
+    <t>VP_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +157,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,122 +498,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C21F5E0-0B7F-47AA-8CE6-D13C90D1828D}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="2">
         <v>1094172</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="2">
         <v>37500</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="2">
         <v>37500</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="2">
         <v>100</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1094172</v>
+      </c>
+      <c r="H3" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2">
+        <v>37500</v>
+      </c>
+      <c r="J3" s="2">
+        <v>37500</v>
+      </c>
+      <c r="K3" s="2">
+        <v>100</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1094172</v>
+      </c>
+      <c r="H4" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2">
+        <v>37500</v>
+      </c>
+      <c r="J4" s="2">
+        <v>37500</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1094172</v>
+      </c>
+      <c r="H5" s="2">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2">
+        <v>37500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>37500</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2">
+        <v>-50000</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1094172</v>
+      </c>
+      <c r="H6" s="2">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2">
+        <v>37500</v>
+      </c>
+      <c r="J6" s="2">
+        <v>37500</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2">
+        <v>-200000</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -562,7 +1131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
